--- a/MeetingRegistration3/Main.rvl.xlsx
+++ b/MeetingRegistration3/Main.rvl.xlsx
@@ -1184,7 +1184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5124">
+  <borders count="5125">
     <border>
       <left/>
       <right/>
@@ -6315,11 +6315,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5124">
+  <cellXfs count="5125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -11444,6 +11445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5121" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5122" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5123" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5124" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11453,7 +11455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -11516,47 +11518,65 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4993" t="s">
+      <c r="A5" s="4994" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4994" t="s">
+      <c r="A6" s="4969" t="s">
         <v>47</v>
       </c>
+      <c r="B6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4969" t="s">
-        <v>47</v>
+      <c r="A7" s="4972" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4972" t="s">
+      <c r="A8" s="4974" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -11572,75 +11592,73 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4974" t="s">
+      <c r="A9" s="4976" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4970" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4968"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="161"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4976" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4970" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4968"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="161"/>
+      <c r="A14" s="162"/>
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -11648,354 +11666,333 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="162"/>
-      <c r="B15" t="s">
+      <c r="A15" s="166"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3514"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3560" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="163"/>
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="166"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3514"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3560" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="G19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G21" s="39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="163"/>
-      <c r="B19" t="s">
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="230"/>
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" t="s">
         <v>41</v>
       </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="40"/>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="230"/>
+      <c r="A23" s="231"/>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="231"/>
-      <c r="B24" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="C24" s="51" t="s">
         <v>16</v>
       </c>
+      <c r="D24" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="56"/>
     </row>
     <row r="25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="3558"/>
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="52" t="s">
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="56"/>
     </row>
     <row r="26">
-      <c r="A26" s="3558"/>
+      <c r="A26" s="3557"/>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3557"/>
-      <c r="B27" t="s">
+      <c r="A27" s="3515"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3516"/>
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3515"/>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3516"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>131</v>
-      </c>
+      <c r="A29" s="250"/>
     </row>
     <row r="30">
-      <c r="A30" s="250"/>
+      <c r="A30" s="4996"/>
     </row>
     <row r="31">
-      <c r="A31" s="4996"/>
+      <c r="A31" s="253"/>
     </row>
     <row r="32">
-      <c r="A32" s="253"/>
+      <c r="A32" s="254"/>
     </row>
     <row r="33">
-      <c r="A33" s="254"/>
+      <c r="A33" s="255"/>
     </row>
     <row r="34">
-      <c r="A34" s="255"/>
+      <c r="A34" s="256"/>
     </row>
     <row r="35">
-      <c r="A35" s="256"/>
+      <c r="A35" s="257"/>
     </row>
     <row r="36">
-      <c r="A36" s="257"/>
+      <c r="A36" s="258"/>
     </row>
     <row r="37">
-      <c r="A37" s="258"/>
+      <c r="A37" s="259"/>
     </row>
     <row r="38">
-      <c r="A38" s="259"/>
+      <c r="A38" s="260"/>
     </row>
     <row r="39">
-      <c r="A39" s="260"/>
+      <c r="A39" s="261"/>
     </row>
     <row r="40">
-      <c r="A40" s="261"/>
+      <c r="A40" s="262"/>
     </row>
     <row r="41">
-      <c r="A41" s="262"/>
+      <c r="A41" s="263"/>
     </row>
     <row r="42">
-      <c r="A42" s="263"/>
+      <c r="A42" s="264"/>
     </row>
     <row r="43">
-      <c r="A43" s="264"/>
+      <c r="A43" s="265"/>
     </row>
     <row r="44">
-      <c r="A44" s="265"/>
+      <c r="A44" s="266"/>
     </row>
     <row r="45">
-      <c r="A45" s="266"/>
+      <c r="A45" s="267"/>
     </row>
     <row r="46">
-      <c r="A46" s="267"/>
+      <c r="A46" s="268"/>
     </row>
     <row r="47">
-      <c r="A47" s="268"/>
+      <c r="A47" s="269"/>
     </row>
     <row r="48">
-      <c r="A48" s="269"/>
+      <c r="A48" s="270"/>
     </row>
     <row r="49">
-      <c r="A49" s="270"/>
+      <c r="A49" s="271"/>
     </row>
     <row r="50">
-      <c r="A50" s="271"/>
+      <c r="A50" s="272"/>
     </row>
     <row r="51">
-      <c r="A51" s="272"/>
+      <c r="A51" s="273"/>
     </row>
     <row r="52">
-      <c r="A52" s="273"/>
+      <c r="A52" s="274"/>
     </row>
     <row r="53">
-      <c r="A53" s="274"/>
+      <c r="A53" s="275"/>
     </row>
     <row r="54">
-      <c r="A54" s="275"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="153"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="160"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="160"/>
     </row>
   </sheetData>
 </worksheet>
